--- a/experiment/nonconvex/MorganPatrone2006a/compare/Fuertemente-Estacionario/MorganPatrone2006a_Fuertemente-Estacionario.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/compare/Fuertemente-Estacionario/MorganPatrone2006a_Fuertemente-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-85.56403025789554</v>
       </c>
       <c r="E2">
-        <v>0.0354078</v>
+        <v>0.054879</v>
       </c>
       <c r="F2">
-        <v>0.0598733</v>
+        <v>0.1187789</v>
       </c>
       <c r="G2">
-        <v>0.0397907126984127</v>
+        <v>0.07928214603174603</v>
       </c>
       <c r="H2">
         <v>10153</v>
